--- a/digi_gov_fireHazard_test_mobile/Default.xlsx
+++ b/digi_gov_fireHazard_test_mobile/Default.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
